--- a/Raftaar_Core/assets/testdata.xlsx
+++ b/Raftaar_Core/assets/testdata.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeInfo" sheetId="12" r:id="rId1"/>
+    <sheet name="CalculateInterest" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>sl</t>
   </si>
@@ -22,80 +22,56 @@
     <t>Scenario</t>
   </si>
   <si>
-    <t>LaunchPortal</t>
-  </si>
-  <si>
-    <t>UploadEmployeeRoster</t>
-  </si>
-  <si>
-    <t>AddMoreEmployees</t>
-  </si>
-  <si>
-    <t>CreateClass</t>
-  </si>
-  <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Class1</t>
-  </si>
-  <si>
-    <t>Class2</t>
-  </si>
-  <si>
-    <t>Class3</t>
-  </si>
-  <si>
-    <t>Class4</t>
-  </si>
-  <si>
-    <t>PackageDetails</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Employer, employee only coverage, and selects Medical Benefit</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>this is scenario number two</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Iteration Number Three</t>
-  </si>
-  <si>
-    <t>Qwerty@12</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConfirmPassword</t>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Data Row 1</t>
+  </si>
+  <si>
+    <t>Data Row 2</t>
+  </si>
+  <si>
+    <t>Data Row 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +98,6 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,11 +138,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,12 +153,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,11 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -508,16 +471,10 @@
     <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -525,180 +482,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>